--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -442,6 +442,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> diraih pasangan calon </t>
     </r>
@@ -459,6 +460,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, dengan </t>
     </r>
@@ -476,6 +478,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen suara.</t>
     </r>
@@ -498,6 +501,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh </t>
     </r>
@@ -515,6 +519,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen suara di </t>
     </r>
@@ -532,6 +537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -566,6 +572,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh jumlah </t>
     </r>
@@ -583,6 +590,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">di </t>
     </r>
@@ -614,6 +622,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">di </t>
     </r>
@@ -651,6 +660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -668,6 +678,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh suara sebanyak </t>
     </r>
@@ -699,6 +710,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -716,6 +728,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh suara sebanyak </t>
     </r>
@@ -733,6 +746,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>persen suara.</t>
     </r>
@@ -755,6 +769,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -772,6 +787,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebanyak </t>
     </r>
@@ -789,6 +805,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen.</t>
     </r>
@@ -820,6 +837,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -837,6 +855,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> menetapkan pasangan </t>
     </r>
@@ -854,6 +873,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh </t>
     </r>
@@ -871,6 +891,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen. </t>
     </r>
@@ -902,6 +923,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -919,6 +941,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> menetapkan pasangan </t>
     </r>
@@ -936,6 +959,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh </t>
     </r>
@@ -953,6 +977,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara. </t>
     </r>
@@ -981,6 +1006,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -998,6 +1024,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, pasangan </t>
     </r>
@@ -1015,6 +1042,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh suara sebanyak </t>
     </r>
@@ -1046,6 +1074,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1063,6 +1092,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, pasangan </t>
     </r>
@@ -1080,6 +1110,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh suara sekitar </t>
     </r>
@@ -1108,6 +1139,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> meraih </t>
     </r>
@@ -1125,6 +1157,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -1142,6 +1175,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1170,6 +1204,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> meraih </t>
     </r>
@@ -1187,6 +1222,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">suara di </t>
     </r>
@@ -1204,6 +1240,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1223,6 +1260,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> meraup </t>
     </r>
@@ -1240,6 +1278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -1257,6 +1296,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1276,6 +1316,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> meraup </t>
     </r>
@@ -1293,6 +1334,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">suara di </t>
     </r>
@@ -1310,6 +1352,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1329,6 +1372,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memeroleh </t>
     </r>
@@ -1346,6 +1390,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">persen suara di </t>
     </r>
@@ -1363,6 +1408,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1385,6 +1431,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memimpin perolehan </t>
     </r>
@@ -1402,6 +1449,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -1419,6 +1467,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1441,6 +1490,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memimpin perolehan </t>
     </r>
@@ -1458,6 +1508,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -1475,6 +1526,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1506,6 +1558,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> di </t>
     </r>
@@ -1523,6 +1576,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ditempati pasangan </t>
     </r>
@@ -1540,6 +1594,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan raihan </t>
     </r>
@@ -1557,6 +1612,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen.</t>
     </r>
@@ -1579,6 +1635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> di </t>
     </r>
@@ -1596,6 +1653,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ditempati pasangan </t>
     </r>
@@ -1613,6 +1671,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan raihan </t>
     </r>
@@ -1630,6 +1689,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara.</t>
     </r>
@@ -1658,6 +1718,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ditempati oleh pasangan </t>
     </r>
@@ -1675,6 +1736,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan </t>
     </r>
@@ -1692,6 +1754,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen.</t>
     </r>
@@ -1714,6 +1777,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ditempati oleh pasangan </t>
     </r>
@@ -1731,6 +1795,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan </t>
     </r>
@@ -1748,6 +1813,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara.</t>
     </r>
@@ -1770,6 +1836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> adalah </t>
     </r>
@@ -1787,6 +1854,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara.</t>
     </r>
@@ -1815,6 +1883,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> adalah </t>
     </r>
@@ -1832,6 +1901,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>suara sah</t>
     </r>
@@ -1863,6 +1933,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> adalah </t>
     </r>
@@ -1880,6 +1951,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>suara tidak sah.</t>
     </r>
@@ -1902,6 +1974,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">mencapai </t>
     </r>
@@ -1919,6 +1992,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen.</t>
     </r>
@@ -1947,6 +2021,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">mencapai </t>
     </r>
@@ -1964,6 +2039,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen. </t>
     </r>
@@ -1995,6 +2071,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> unggul dengan meraih </t>
     </r>
@@ -2012,6 +2089,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -2029,6 +2107,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2057,6 +2136,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> unggul dengan meraih </t>
     </r>
@@ -2074,6 +2154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -2091,6 +2172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2113,6 +2195,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2130,6 +2213,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -2147,6 +2231,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2175,6 +2260,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2192,6 +2278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -2209,6 +2296,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2231,6 +2319,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -2248,6 +2337,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2270,6 +2360,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> mendapat </t>
     </r>
@@ -2287,6 +2378,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -2304,6 +2396,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2326,6 +2419,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebanyak </t>
     </r>
@@ -2343,6 +2437,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>di</t>
     </r>
@@ -2374,6 +2469,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">sebanyak </t>
     </r>
@@ -2405,6 +2501,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> mendapatkan suara sebanyak </t>
     </r>
@@ -2422,6 +2519,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">di </t>
     </r>
@@ -2439,6 +2537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2461,6 +2560,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2478,6 +2578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebanyak </t>
     </r>
@@ -2495,6 +2596,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2517,6 +2619,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2534,6 +2637,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebanyak </t>
     </r>
@@ -2551,6 +2655,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2573,6 +2678,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> unggul di </t>
     </r>
@@ -2590,6 +2696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">dengan </t>
     </r>
@@ -2607,6 +2714,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>suara.</t>
     </r>
@@ -2626,6 +2734,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memimpin perolehan suara dengan </t>
     </r>
@@ -2643,6 +2752,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -2660,6 +2770,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2679,6 +2790,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> memimpin perolehan suara dengan </t>
     </r>
@@ -2696,6 +2808,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -2713,6 +2826,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2735,6 +2849,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> di posisi </t>
     </r>
@@ -2752,6 +2867,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan </t>
     </r>
@@ -2769,6 +2885,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -2786,6 +2903,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2808,6 +2926,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> di posisi </t>
     </r>
@@ -2825,6 +2944,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dengan raihan </t>
     </r>
@@ -2842,6 +2962,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -2859,6 +2980,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2881,6 +3003,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">turun tangga ke posisi buncit dengan meraih </t>
     </r>
@@ -2898,6 +3021,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara warga </t>
     </r>
@@ -2915,6 +3039,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2937,6 +3062,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">turun tangga ke posisi buncit dengan meraih </t>
     </r>
@@ -2954,6 +3080,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen suara warga </t>
     </r>
@@ -2971,6 +3098,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2993,6 +3121,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3010,6 +3139,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara.</t>
     </r>
@@ -3032,6 +3162,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> menempati urutan </t>
     </r>
@@ -3049,6 +3180,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>di</t>
     </r>
@@ -3066,6 +3198,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, yakni dengan perolehan suara </t>
     </r>
@@ -3083,6 +3216,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>% (persen) .</t>
     </r>
@@ -3105,6 +3239,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebesar </t>
     </r>
@@ -3122,6 +3257,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -3139,6 +3275,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3161,6 +3298,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> hanya memeroleh suara </t>
     </r>
@@ -3178,6 +3316,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen di </t>
     </r>
@@ -3195,6 +3334,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3217,6 +3357,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, tingkat partisipasi pemilihan sebesar </t>
     </r>
@@ -3234,6 +3375,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> persen,</t>
     </r>
@@ -3256,6 +3398,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">suara dinyatakan tidak sah di </t>
     </r>
@@ -3287,6 +3430,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> pemilih disabilitas yang terdata di </t>
     </r>
@@ -3318,6 +3462,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sebanyak </t>
     </r>
@@ -3335,6 +3480,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> orang</t>
     </r>
@@ -3357,6 +3503,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> berjumlah </t>
     </r>
@@ -3374,6 +3521,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3396,6 +3544,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>di</t>
     </r>
@@ -3413,6 +3562,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3435,6 +3585,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>persen</t>
     </r>
@@ -3452,6 +3603,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>di</t>
     </r>
@@ -3469,6 +3621,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3491,6 +3644,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> tercatat </t>
     </r>
@@ -3522,6 +3676,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> saat ini </t>
     </r>
@@ -3539,6 +3694,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suara di </t>
     </r>
@@ -3556,6 +3712,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3578,6 +3735,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> orang pemilih di </t>
     </r>
@@ -3609,6 +3767,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">di </t>
     </r>
@@ -3626,6 +3785,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3648,6 +3808,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> orang di </t>
     </r>
@@ -3679,6 +3840,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ada </t>
     </r>
@@ -3696,6 +3858,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> penyandang disabilitas yang menggunakan hak pilihnya.</t>
     </r>
@@ -3980,7 +4143,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4003,27 +4174,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4323,7 +4478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7642,7 +7797,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9342,13 +9497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -386,15 +386,9 @@
     <t>Suara sah sebanyak {{value1}} dana suara tidak saha sebanyak {{value2}} di {{location}}.</t>
   </si>
   <si>
-    <t>Pasangan {{entity}} mendapatkan suara sebanyak {{value1}} atau {{value2}} persen di {[location}}.</t>
-  </si>
-  <si>
     <t>Suara sah untuk {{location_type}} {{location}} sebanyak {{value1}} dana suara tidak sah sebanyak {{value2}}.</t>
   </si>
   <si>
-    <t>Data menunjukkan pasangan calon {{entity}} unggul di {[location}} dengan {{value1}} suara atau {{value2}} persen.</t>
-  </si>
-  <si>
     <t>{{entity}} memimpin perolehan suara dengan {{value2}} suara atau {{value1}} persen di {{location}}.</t>
   </si>
   <si>
@@ -3871,6 +3865,24 @@
   </si>
   <si>
     <t>Tingkat partisipasi pemilih disabilitas di {{location}} mencapai {{value}} persen.</t>
+  </si>
+  <si>
+    <t>Pasangan {{entity}} mendapatkan suara sebanyak {{value1}} atau {{value2}} persen di {{location}}.</t>
+  </si>
+  <si>
+    <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value1}} suara atau {{value2}} persen.</t>
+  </si>
+  <si>
+    <t>Pasangan {{entity}} mendapatkan suara sebanyak {{value}} di {{location}}.</t>
+  </si>
+  <si>
+    <t>Pasangan {{entity}} mendapatkan suara sebanyak {{value}} persen di {{location}}.</t>
+  </si>
+  <si>
+    <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value}} suara.</t>
+  </si>
+  <si>
+    <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value}} persen.</t>
   </si>
 </sst>
 </file>
@@ -4768,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>9</v>
@@ -4792,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>9</v>
@@ -5226,7 +5238,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>19</v>
@@ -6274,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -6303,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>9</v>
@@ -6328,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>9</v>
@@ -6351,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>19</v>
@@ -6374,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
@@ -6397,7 +6409,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
@@ -6420,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>19</v>
@@ -6443,7 +6455,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -6468,7 +6480,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -6493,7 +6505,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>9</v>
@@ -6516,7 +6528,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -6539,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -6562,7 +6574,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>9</v>
@@ -6585,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>9</v>
@@ -6610,7 +6622,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>9</v>
@@ -6635,7 +6647,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>9</v>
@@ -6658,7 +6670,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>9</v>
@@ -6683,7 +6695,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>9</v>
@@ -6708,7 +6720,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>9</v>
@@ -6731,7 +6743,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>9</v>
@@ -6754,7 +6766,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>9</v>
@@ -6779,7 +6791,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>9</v>
@@ -6804,7 +6816,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>19</v>
@@ -6829,7 +6841,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>19</v>
@@ -6854,7 +6866,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>19</v>
@@ -6879,7 +6891,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>19</v>
@@ -6902,13 +6914,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -6925,7 +6937,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>9</v>
@@ -6950,7 +6962,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>9</v>
@@ -6975,7 +6987,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>9</v>
@@ -6998,7 +7010,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>9</v>
@@ -7021,13 +7033,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -7044,7 +7056,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>9</v>
@@ -7067,7 +7079,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>19</v>
@@ -7090,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>19</v>
@@ -7113,7 +7125,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>9</v>
@@ -7136,7 +7148,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>19</v>
@@ -7159,7 +7171,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>19</v>
@@ -7182,7 +7194,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>9</v>
@@ -7207,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>9</v>
@@ -7232,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>9</v>
@@ -7257,7 +7269,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>9</v>
@@ -7282,7 +7294,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>9</v>
@@ -7307,7 +7319,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>9</v>
@@ -7332,7 +7344,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>9</v>
@@ -7357,7 +7369,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>19</v>
@@ -7380,7 +7392,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>9</v>
@@ -7401,7 +7413,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>9</v>
@@ -7422,7 +7434,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>9</v>
@@ -7445,7 +7457,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>19</v>
@@ -7468,7 +7480,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>19</v>
@@ -7489,7 +7501,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>19</v>
@@ -7510,7 +7522,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>19</v>
@@ -7531,7 +7543,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>19</v>
@@ -7552,7 +7564,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>19</v>
@@ -7573,7 +7585,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>19</v>
@@ -7592,7 +7604,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
@@ -7609,7 +7621,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>19</v>
@@ -7628,7 +7640,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>19</v>
@@ -7642,7 +7654,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>19</v>
@@ -7656,7 +7668,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>19</v>
@@ -7670,7 +7682,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>19</v>
@@ -7809,7 +7821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:H75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8778,7 +8792,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -8800,7 +8814,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>9</v>
@@ -8864,7 +8878,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -8888,7 +8902,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>9</v>
@@ -9497,8 +9511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9559,7 +9573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>5</v>
       </c>
@@ -9593,7 +9607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>9</v>
       </c>
@@ -9610,7 +9624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>12</v>
       </c>
@@ -9845,7 +9859,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9862,7 +9876,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9879,7 +9893,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9896,7 +9910,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9913,7 +9927,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9930,7 +9944,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9947,7 +9961,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9964,7 +9978,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9981,7 +9995,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9998,7 +10012,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10015,7 +10029,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -10040,13 +10054,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10054,13 +10068,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10068,13 +10082,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10082,13 +10096,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10096,13 +10110,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10110,13 +10124,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10124,13 +10138,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10138,13 +10152,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10152,13 +10166,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10166,13 +10180,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10180,13 +10194,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10194,13 +10208,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10208,13 +10222,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10222,13 +10236,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10236,13 +10250,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10250,13 +10264,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10264,13 +10278,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10278,13 +10292,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10292,13 +10306,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10306,13 +10320,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10320,13 +10334,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10334,13 +10348,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10348,13 +10362,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10362,13 +10376,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10376,13 +10390,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10390,13 +10404,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10404,13 +10418,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10418,13 +10432,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10432,13 +10446,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10446,13 +10460,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10460,13 +10474,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10474,13 +10488,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10488,13 +10502,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10502,13 +10516,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10516,13 +10530,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10530,13 +10544,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10544,13 +10558,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10558,13 +10572,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10572,13 +10586,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10586,13 +10600,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10600,13 +10614,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10614,13 +10628,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10628,13 +10642,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10642,13 +10656,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10656,13 +10670,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10670,13 +10684,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10684,13 +10698,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10698,13 +10712,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10712,13 +10726,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10726,13 +10740,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10740,13 +10754,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10754,13 +10768,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -10768,13 +10782,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="D53" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10782,7 +10796,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10790,7 +10804,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10798,7 +10812,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -101,12 +101,6 @@
     <t>persentase partisipasi pemilih</t>
   </si>
   <si>
-    <t xml:space="preserve">Hasil akhir Rekapitulasi Penghitungan Suara tingkat {{location_type}} {{location}} menetapkan pasangan {{entity}} memeroleh {{value}} persen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasil akhir Rekapitulasi Penghitungan Suara tingkat {{location_type}} {{location}} menetapkan pasangan {{entity}} memeroleh {{value}} suara. </t>
-  </si>
-  <si>
     <t>Total keseluruhan suara di {{location_type}} {{location}}, pasangan {{entity}} memeroleh suara sebanyak {{value}}.</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Tingkat partisipasi pemilih di {{location}} mencapai {{value}} persen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tingkat partisipasi pemilih disabilitas di {{location}} mencapai {{value}} persen. </t>
-  </si>
-  <si>
     <t>persentase partisipasi pemilih disabilitas</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
     <t>Di {{location}}, {{entity}} memeroleh suara sebanyak {{value1}} atau {{value2}} persen suara.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hasil akhir Rekapitulasi Penghitungan Suara tingkat {{location_type}} {{location}} menetapkan pasangan {{entity}} memeroleh {{value2}} suara dan {{value1}} persen. </t>
-  </si>
-  <si>
     <t>Total keseluruhan suara di {{location_type}} {{location}}, pasangan {{entity}} memeroleh suara sebanyak {{value1}} atau sekitar {{value}}%.</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>Pasangan {{entity}} hanya memeroleh suara {{value2}} atau {{value1}} persen di {{location}}.</t>
   </si>
   <si>
-    <t>Ada {{value1}} suara dinyatakan sah dan {{value2}} suara dinyatakan tidak sah di {{location}}</t>
-  </si>
-  <si>
     <t>Total DPTb jumlahnya {{value1}} atau {{value2}} persen di {{location}}.</t>
   </si>
   <si>
@@ -3883,6 +3868,18 @@
   </si>
   <si>
     <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value}} persen.</t>
+  </si>
+  <si>
+    <t>Saat pemungutan suara, jumlah penyandang disabilitas yang datang {{value}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>Hasil akhir Rekapitulasi Penghitungan Suara tingkat {{location_type}} {{location}} menetapkan pasangan {{entity}} memeroleh {{value2}} suara dan {{value1}} persen.</t>
+  </si>
+  <si>
+    <t>Ada {{value1}} suara dinyatakan sah dan {{value2}} suara dinyatakan tidak sah di {{location}}.</t>
+  </si>
+  <si>
+    <t>Untuk {{event}}, tingkat partisipasi pemilihan sebesar {{value}} persen.</t>
   </si>
 </sst>
 </file>
@@ -4490,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4780,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>9</v>
@@ -4804,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>9</v>
@@ -4828,7 +4825,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>9</v>
@@ -4850,7 +4847,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>9</v>
@@ -4872,7 +4869,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>9</v>
@@ -4894,7 +4891,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>9</v>
@@ -4916,7 +4913,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>9</v>
@@ -4940,7 +4937,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>9</v>
@@ -4964,7 +4961,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>9</v>
@@ -4986,7 +4983,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>9</v>
@@ -5008,7 +5005,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>9</v>
@@ -5032,7 +5029,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>9</v>
@@ -5056,7 +5053,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>9</v>
@@ -5078,7 +5075,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>9</v>
@@ -5100,7 +5097,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>9</v>
@@ -5110,7 +5107,7 @@
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="34">
         <v>0</v>
@@ -5124,7 +5121,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>9</v>
@@ -5134,7 +5131,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="34">
         <v>0</v>
@@ -5148,13 +5145,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>11</v>
@@ -5170,7 +5167,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>19</v>
@@ -5194,7 +5191,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>19</v>
@@ -5218,7 +5215,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>19</v>
@@ -5238,13 +5235,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -5258,7 +5255,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>9</v>
@@ -5282,7 +5279,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>9</v>
@@ -5306,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>9</v>
@@ -5328,7 +5325,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>9</v>
@@ -5350,7 +5347,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>19</v>
@@ -5370,7 +5367,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>9</v>
@@ -5392,7 +5389,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>9</v>
@@ -5414,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>19</v>
@@ -5436,7 +5433,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>19</v>
@@ -5458,7 +5455,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>9</v>
@@ -5480,7 +5477,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>9</v>
@@ -5502,7 +5499,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>19</v>
@@ -5524,7 +5521,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>19</v>
@@ -5546,7 +5543,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>9</v>
@@ -5570,7 +5567,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>9</v>
@@ -5594,7 +5591,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>9</v>
@@ -5618,7 +5615,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>9</v>
@@ -5642,7 +5639,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>9</v>
@@ -5652,7 +5649,7 @@
       </c>
       <c r="E51" s="35"/>
       <c r="F51" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G51" s="34">
         <v>0</v>
@@ -5666,7 +5663,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>9</v>
@@ -5676,7 +5673,7 @@
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G52" s="34">
         <v>0</v>
@@ -5690,7 +5687,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>9</v>
@@ -5700,7 +5697,7 @@
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53" s="34">
         <v>0</v>
@@ -5714,7 +5711,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>9</v>
@@ -5724,7 +5721,7 @@
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" s="34">
         <v>0</v>
@@ -5738,13 +5735,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>11</v>
@@ -5760,7 +5757,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>9</v>
@@ -5782,7 +5779,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>9</v>
@@ -5804,7 +5801,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>9</v>
@@ -5826,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>9</v>
@@ -5848,7 +5845,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>9</v>
@@ -5858,7 +5855,7 @@
       </c>
       <c r="E60" s="35"/>
       <c r="F60" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60" s="34">
         <v>0</v>
@@ -5872,7 +5869,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>9</v>
@@ -5882,7 +5879,7 @@
       </c>
       <c r="E61" s="35"/>
       <c r="F61" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G61" s="34">
         <v>0</v>
@@ -5896,7 +5893,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>19</v>
@@ -5918,7 +5915,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>19</v>
@@ -5940,7 +5937,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>19</v>
@@ -5962,13 +5959,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -5982,13 +5979,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -6002,13 +5999,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -6022,13 +6019,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
@@ -6044,13 +6041,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
@@ -6066,13 +6063,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
@@ -6086,13 +6083,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -6106,13 +6103,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
@@ -6126,13 +6123,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
@@ -6146,13 +6143,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
@@ -6166,13 +6163,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
@@ -6286,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -6315,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>9</v>
@@ -6340,7 +6337,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>9</v>
@@ -6363,7 +6360,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>19</v>
@@ -6386,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
@@ -6409,7 +6406,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
@@ -6432,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>19</v>
@@ -6455,7 +6452,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -6480,7 +6477,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -6505,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>9</v>
@@ -6528,7 +6525,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -6551,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -6574,7 +6571,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>9</v>
@@ -6597,7 +6594,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>9</v>
@@ -6622,7 +6619,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>9</v>
@@ -6647,7 +6644,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>9</v>
@@ -6670,7 +6667,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>9</v>
@@ -6695,7 +6692,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>9</v>
@@ -6720,7 +6717,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>9</v>
@@ -6743,7 +6740,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>9</v>
@@ -6766,7 +6763,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>9</v>
@@ -6776,7 +6773,7 @@
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
@@ -6791,7 +6788,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>9</v>
@@ -6801,7 +6798,7 @@
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="25">
         <v>0</v>
@@ -6816,13 +6813,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>11</v>
@@ -6841,7 +6838,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>19</v>
@@ -6866,7 +6863,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>19</v>
@@ -6891,7 +6888,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>19</v>
@@ -6914,13 +6911,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -6937,7 +6934,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>9</v>
@@ -6962,7 +6959,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>9</v>
@@ -6987,7 +6984,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>9</v>
@@ -7010,7 +7007,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>9</v>
@@ -7033,13 +7030,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -7056,7 +7053,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>9</v>
@@ -7079,7 +7076,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>19</v>
@@ -7102,13 +7099,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -7125,7 +7122,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>9</v>
@@ -7148,7 +7145,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>19</v>
@@ -7171,7 +7168,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>19</v>
@@ -7194,7 +7191,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>9</v>
@@ -7219,7 +7216,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>9</v>
@@ -7244,7 +7241,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>9</v>
@@ -7269,7 +7266,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>9</v>
@@ -7279,7 +7276,7 @@
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
@@ -7294,7 +7291,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>9</v>
@@ -7304,7 +7301,7 @@
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G43" s="25">
         <v>0</v>
@@ -7319,7 +7316,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>9</v>
@@ -7329,7 +7326,7 @@
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G44" s="25">
         <v>0</v>
@@ -7344,7 +7341,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>9</v>
@@ -7354,7 +7351,7 @@
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G45" s="25">
         <v>0</v>
@@ -7369,13 +7366,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>11</v>
@@ -7392,7 +7389,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>9</v>
@@ -7413,7 +7410,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>9</v>
@@ -7434,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>9</v>
@@ -7444,7 +7441,7 @@
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
@@ -7457,7 +7454,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>19</v>
@@ -7480,7 +7477,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>19</v>
@@ -7501,13 +7498,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
@@ -7522,13 +7519,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
@@ -7543,13 +7540,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
@@ -7564,13 +7561,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
@@ -7585,13 +7582,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
@@ -7604,13 +7601,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G57" s="13">
         <v>0</v>
@@ -7621,13 +7618,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="27"/>
@@ -7640,13 +7637,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -7654,13 +7651,13 @@
         <v>60</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -7668,13 +7665,13 @@
         <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -7682,13 +7679,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -7821,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:H75"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8112,7 +8109,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -8136,7 +8133,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -8160,7 +8157,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -8182,7 +8179,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -8204,7 +8201,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -8226,7 +8223,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -8248,7 +8245,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -8272,7 +8269,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -8296,7 +8293,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -8318,7 +8315,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -8340,7 +8337,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -8364,7 +8361,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -8388,7 +8385,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -8410,7 +8407,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -8432,7 +8429,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -8442,7 +8439,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -8456,7 +8453,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -8466,7 +8463,7 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -8480,13 +8477,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -8502,7 +8499,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
@@ -8526,7 +8523,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
@@ -8550,7 +8547,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>19</v>
@@ -8571,13 +8568,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -8592,7 +8589,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
@@ -8616,7 +8613,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -8640,7 +8637,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>9</v>
@@ -8662,7 +8659,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -8684,7 +8681,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>19</v>
@@ -8704,7 +8701,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -8726,7 +8723,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>9</v>
@@ -8748,7 +8745,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>19</v>
@@ -8770,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>19</v>
@@ -8792,7 +8789,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -8814,7 +8811,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>9</v>
@@ -8834,7 +8831,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>19</v>
@@ -8856,7 +8853,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>19</v>
@@ -8878,7 +8875,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -8902,7 +8899,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>9</v>
@@ -8926,7 +8923,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -8950,7 +8947,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>9</v>
@@ -8974,7 +8971,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -8984,7 +8981,7 @@
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
@@ -8998,7 +8995,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
@@ -9008,7 +9005,7 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G52" s="5">
         <v>0</v>
@@ -9022,7 +9019,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -9032,7 +9029,7 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
@@ -9046,7 +9043,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -9056,7 +9053,7 @@
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
@@ -9070,13 +9067,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>11</v>
@@ -9091,7 +9088,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -9113,7 +9110,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -9135,7 +9132,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>9</v>
@@ -9157,7 +9154,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -9179,7 +9176,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>9</v>
@@ -9189,7 +9186,7 @@
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
@@ -9203,7 +9200,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -9213,7 +9210,7 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
@@ -9227,7 +9224,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>19</v>
@@ -9248,7 +9245,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>19</v>
@@ -9270,7 +9267,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>19</v>
@@ -9292,13 +9289,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -9311,13 +9308,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -9330,13 +9327,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -9349,13 +9346,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -9371,13 +9368,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -9393,13 +9390,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -9412,13 +9409,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -9431,13 +9428,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -9450,13 +9447,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -9469,13 +9466,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -9488,13 +9485,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
@@ -9511,8 +9508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9524,16 +9521,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
@@ -9553,7 +9550,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9570,7 +9567,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9587,7 +9584,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9604,7 +9601,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9621,7 +9618,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9638,7 +9635,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9655,7 +9652,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9672,7 +9669,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9689,7 +9686,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9706,7 +9703,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9723,7 +9720,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9740,7 +9737,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9757,7 +9754,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9774,7 +9771,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9791,7 +9788,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9808,7 +9805,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9825,7 +9822,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9842,7 +9839,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9859,7 +9856,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9876,7 +9873,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9893,7 +9890,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9910,7 +9907,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9927,7 +9924,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9944,7 +9941,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9961,7 +9958,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9978,7 +9975,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9995,7 +9992,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10012,7 +10009,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10023,13 +10020,13 @@
         <v>68</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -10054,13 +10051,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10068,13 +10065,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10082,13 +10079,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10096,13 +10093,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10110,13 +10107,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10124,13 +10121,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10138,13 +10135,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10152,13 +10149,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10166,13 +10163,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10180,13 +10177,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10194,13 +10191,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10208,13 +10205,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10222,13 +10219,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10236,13 +10233,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10250,13 +10247,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10264,13 +10261,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10278,13 +10275,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10292,13 +10289,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10306,13 +10303,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10320,13 +10317,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10334,13 +10331,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10348,13 +10345,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10362,13 +10359,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10376,13 +10373,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10390,13 +10387,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10404,13 +10401,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10418,13 +10415,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10432,13 +10429,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10446,13 +10443,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10460,13 +10457,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10474,13 +10471,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10488,13 +10485,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10502,13 +10499,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10516,13 +10513,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10530,13 +10527,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10544,13 +10541,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10558,13 +10555,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10572,13 +10569,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10586,13 +10583,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10600,13 +10597,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10614,13 +10611,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10628,13 +10625,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10642,13 +10639,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10656,13 +10653,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10670,13 +10667,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10684,13 +10681,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10698,13 +10695,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10712,13 +10709,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10726,13 +10723,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10740,13 +10737,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10754,13 +10751,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10768,13 +10765,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -10782,13 +10779,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10796,7 +10793,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10804,7 +10801,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10812,7 +10809,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Template Couple" sheetId="3" r:id="rId3"/>
     <sheet name="Template Agregasi" sheetId="4" r:id="rId4"/>
     <sheet name="Source" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="276">
   <si>
     <t>No</t>
   </si>
@@ -371,12 +372,6 @@
     <t>Pasangan {{entity}} mendapat {{value1}} atau {{value2}} suara di {{location}}.</t>
   </si>
   <si>
-    <t>Suara sah sebanyak {{value1}} dana suara tidak saha sebanyak {{value2}} di {{location}}.</t>
-  </si>
-  <si>
-    <t>Suara sah untuk {{location_type}} {{location}} sebanyak {{value1}} dana suara tidak sah sebanyak {{value2}}.</t>
-  </si>
-  <si>
     <t>{{entity}} memimpin perolehan suara dengan {{value2}} suara atau {{value1}} persen di {{location}}.</t>
   </si>
   <si>
@@ -386,9 +381,6 @@
     <t>Pasangan {{entity}} turun tangga ke posisi buncit dengan meraih {{value1}} suara atau {{value2}} persen suara warga {{location_type}} {{location}}.</t>
   </si>
   <si>
-    <t>Pasangan {{entity}} menempati urutan {{rank}} di {{location}}, yakni dengan perolehan suara {{value2}} suara atau {{value1}}% (persen) .</t>
-  </si>
-  <si>
     <t>Perolehan suara pasangan {{entity}} sebesar {{value2}} suara atau {{value1}} persen di {{location}}.</t>
   </si>
   <si>
@@ -3864,12 +3856,6 @@
     <t>Pasangan {{entity}} mendapatkan suara sebanyak {{value}} persen di {{location}}.</t>
   </si>
   <si>
-    <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value}} suara.</t>
-  </si>
-  <si>
-    <t>Data menunjukkan pasangan calon {{entity}} unggul di {{location}} dengan {{value}} persen.</t>
-  </si>
-  <si>
     <t>Saat pemungutan suara, jumlah penyandang disabilitas yang datang {{value}} orang di {{location}}.</t>
   </si>
   <si>
@@ -3880,6 +3866,135 @@
   </si>
   <si>
     <t>Untuk {{event}}, tingkat partisipasi pemilihan sebesar {{value}} persen.</t>
+  </si>
+  <si>
+    <t>Pasangan {{entity}} menempati urutan {{rank}} di {{location}}, yakni dengan perolehan suara {{value2}} suara atau {{value1}}% (persen).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pasangan {{entity}} menempati urutan {{rank}} di {{location}}, yakni dengan perolehan suara {{value}}% (persen).</t>
+  </si>
+  <si>
+    <t>Jumlah daftar pemilih tetap sebanyak {{value}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>Jumlah DPTb sebanyak {{value}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>Partisipasi pemilih di {{event}} capai {{value}} persen</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi pemilih mencapai {{value}} persen di {{location}}.</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi pemilih disabilitas mencapai {{value}} persen di {{location}} .</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi masyarakat yang menggunakan hak pilih di {{event}} sebesar {{value}} persen</t>
+  </si>
+  <si>
+    <t>Total {{value}} suara sah di {{location}}.</t>
+  </si>
+  <si>
+    <t>Suara sah untuk {{location}} sebanyak {{value}}.</t>
+  </si>
+  <si>
+    <t>Suara tidak sah {{value}} di {{location}}.</t>
+  </si>
+  <si>
+    <t>Total suara sah sebanyak {{value}} di {{location}}.</t>
+  </si>
+  <si>
+    <t>Total suara tidak sah sebanyak {{value}} suara di {{location}}.</t>
+  </si>
+  <si>
+    <t>Suara sah untuk {{location}} sebanyak {{value1}}, suara tidak sah {{value2}}.</t>
+  </si>
+  <si>
+    <t>Suara sah untuk {{location_type}} {{location}} sebanyak {{value1}}, suara tidak sah {{value2}}.</t>
+  </si>
+  <si>
+    <t>{{value}} suara sah di {{location}}.</t>
+  </si>
+  <si>
+    <t>{{value}} suara tidak sah di {{location}}.</t>
+  </si>
+  <si>
+    <t>{{value1}} suara sah dan {{value2}} suara tidak sah di {{location}}.</t>
+  </si>
+  <si>
+    <t>Data pemilih terdiri atas pemilih laki-laki {{value}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>total pemilih laki-laki</t>
+  </si>
+  <si>
+    <t>total pemilih perempuan</t>
+  </si>
+  <si>
+    <t>Data pemilih terdiri atas pemilih perempuan {{value}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>Data pemilih terdiri atas pemilih laki-laki {{value1}} orang dan perempuan {{value2}} orang.</t>
+  </si>
+  <si>
+    <t>Jumlah daftar pemilih tetap sebanyak {{value1}} orang, dan DPTb sebanyak {{value2}} orang di {{location}}.</t>
+  </si>
+  <si>
+    <t>partai</t>
+  </si>
+  <si>
+    <t>total kemenangan</t>
+  </si>
+  <si>
+    <t>{{entity}} meraih {{value}} kemenangan di {{value}} daerah.</t>
+  </si>
+  <si>
+    <t>{{entity}} meraih {{value}} kemenangan di {{value}} daerah pada pemilihan gubernur.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di posisi {{rank}} dengan {{value}} kemenangan pada pemilihan gubernur. </t>
+  </si>
+  <si>
+    <t>{{entity}} meraih {{value}} kemenangan di {{value}} daerah pada pemilihan bupati</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di urutan {{rank}} dengan raihan kemenangan {{value}} daerah pada pemilihan gubernur.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di urutan {{rank}} dengan raihan kemenangan {{value}} daerah.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di posisi {{rank}} dengan {{value}} kemenangan.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di posisi {{rank}} dengan {{value}} kemenangan pada pemilihan bupati.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di urutan {{rank}} dengan raihan kemenangan {{value}} daerah pada pemilihan bupati.</t>
+  </si>
+  <si>
+    <t>{{entity}} meraih {{value}} kemenangan di {{value}} daerah pada pemilihan walikota.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di posisi {{rank}} dengan {{value}} kemenangan pada pemilihan walikota.</t>
+  </si>
+  <si>
+    <t>{{entity}} berada di urutan {{rank}} dengan raihan kemenangan {{value}} daerah pada pemilihan walikota.</t>
+  </si>
+  <si>
+    <t>jumlah kemenangan tingkat gubernur</t>
+  </si>
+  <si>
+    <t>jumlah kemenangan tingkat walikota</t>
+  </si>
+  <si>
+    <t>jumlah kemenangan tingkat bupati</t>
+  </si>
+  <si>
+    <t>{{entity}} merupakan partai paling banyak memenangkan pilkada serentak dengan {{value}} kandidat usungan mereka menjadi pemenang.</t>
   </si>
 </sst>
 </file>
@@ -3948,7 +4063,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3965,6 +4080,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -4062,7 +4189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4102,7 +4229,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4148,6 +4274,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4487,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4499,1684 +4628,1684 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>1</v>
       </c>
-      <c r="G2" s="34">
-        <v>0</v>
-      </c>
-      <c r="H2" s="36">
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>1</v>
       </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="G3" s="33">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36">
+      <c r="F13" s="34"/>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="F14" s="34"/>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="34">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34">
+      <c r="E19" s="34"/>
+      <c r="F19" s="33">
         <v>1</v>
       </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="36">
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="34">
+      <c r="E20" s="34"/>
+      <c r="F20" s="33">
         <v>1</v>
       </c>
-      <c r="G20" s="34">
-        <v>0</v>
-      </c>
-      <c r="H20" s="36">
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="36">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34">
+      <c r="E23" s="34"/>
+      <c r="F23" s="33">
         <v>1</v>
       </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="36">
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="34">
+      <c r="E24" s="34"/>
+      <c r="F24" s="33">
         <v>1</v>
       </c>
-      <c r="G24" s="34">
-        <v>0</v>
-      </c>
-      <c r="H24" s="36">
+      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="36">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="C26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="36">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="34">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36">
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="34">
-        <v>0</v>
-      </c>
-      <c r="H28" s="36">
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>28</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="34">
-        <v>0</v>
-      </c>
-      <c r="H29" s="37"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="34">
-        <v>0</v>
-      </c>
-      <c r="H30" s="36">
+      <c r="F30" s="34"/>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="34">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="F31" s="34"/>
+      <c r="G31" s="33">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="34">
-        <v>0</v>
-      </c>
-      <c r="H32" s="37"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="34">
-        <v>0</v>
-      </c>
-      <c r="H33" s="37"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="34">
+      <c r="E34" s="34"/>
+      <c r="F34" s="33">
         <v>1</v>
       </c>
-      <c r="G34" s="34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="36">
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>34</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="35" t="s">
+      <c r="C35" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="34">
+      <c r="E35" s="34"/>
+      <c r="F35" s="33">
         <v>1</v>
       </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="36">
+      <c r="G35" s="33">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="C36" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="34">
-        <v>0</v>
-      </c>
-      <c r="H36" s="36">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="34">
-        <v>0</v>
-      </c>
-      <c r="H37" s="36">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>37</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
-      <c r="H38" s="37"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33">
+        <v>0</v>
+      </c>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="33">
         <v>38</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36">
-        <v>0</v>
-      </c>
-      <c r="H39" s="36">
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35">
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="35">
         <v>39</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="C40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36">
-        <v>0</v>
-      </c>
-      <c r="H40" s="36">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="35">
         <v>40</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="34">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36">
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="33">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+      <c r="A42" s="35">
         <v>41</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36">
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="33">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+      <c r="A43" s="35">
         <v>42</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="35" t="s">
+      <c r="C43" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="33">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="A44" s="35">
         <v>43</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="35">
         <v>44</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="34">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="33">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+      <c r="A46" s="35">
         <v>45</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="34">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="33">
+        <v>0</v>
+      </c>
+      <c r="H46" s="35">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+      <c r="A47" s="35">
         <v>46</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="35" t="s">
+      <c r="C47" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="34">
+      <c r="E47" s="34"/>
+      <c r="F47" s="33">
         <v>1</v>
       </c>
-      <c r="G47" s="34">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="35">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="35">
         <v>47</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="35" t="s">
+      <c r="C48" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="34">
+      <c r="E48" s="34"/>
+      <c r="F48" s="33">
         <v>1</v>
       </c>
-      <c r="G48" s="34">
-        <v>0</v>
-      </c>
-      <c r="H48" s="36">
+      <c r="G48" s="33">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+      <c r="A49" s="35">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="C49" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="34">
+      <c r="E49" s="34"/>
+      <c r="F49" s="33">
         <v>1</v>
       </c>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="36">
+      <c r="G49" s="33">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+      <c r="A50" s="35">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="35" t="s">
+      <c r="C50" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="34">
+      <c r="E50" s="34"/>
+      <c r="F50" s="33">
         <v>1</v>
       </c>
-      <c r="G50" s="34">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
+      <c r="G50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="35">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="35">
         <v>50</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="35" t="s">
+      <c r="C51" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="34">
-        <v>0</v>
-      </c>
-      <c r="H51" s="36">
+      <c r="G51" s="33">
+        <v>0</v>
+      </c>
+      <c r="H51" s="35">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="35">
         <v>51</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="35" t="s">
+      <c r="C52" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="34">
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
+      <c r="G52" s="33">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+      <c r="A53" s="35">
         <v>52</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="C53" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35" t="s">
+      <c r="E53" s="34"/>
+      <c r="F53" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="34">
-        <v>0</v>
-      </c>
-      <c r="H53" s="36">
+      <c r="G53" s="33">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="35">
         <v>53</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="C54" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="36">
+      <c r="G54" s="33">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
+      <c r="A55" s="35">
         <v>54</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="37"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="33">
+        <v>0</v>
+      </c>
+      <c r="H55" s="36"/>
     </row>
     <row r="56" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+      <c r="A56" s="35">
         <v>55</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="34">
-        <v>0</v>
-      </c>
-      <c r="H56" s="36">
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="33">
+        <v>0</v>
+      </c>
+      <c r="H56" s="35">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="A57" s="35">
         <v>56</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="35" t="s">
+      <c r="C57" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="36">
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="33">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+      <c r="A58" s="35">
         <v>57</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="35" t="s">
+      <c r="C58" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="34">
-        <v>0</v>
-      </c>
-      <c r="H58" s="36">
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="33">
+        <v>0</v>
+      </c>
+      <c r="H58" s="35">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+      <c r="A59" s="35">
         <v>58</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="35" t="s">
+      <c r="C59" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="36">
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="33">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+      <c r="A60" s="35">
         <v>59</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="35" t="s">
+      <c r="C60" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35" t="s">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="36">
+      <c r="G60" s="33">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
+      <c r="A61" s="39">
         <v>60</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="35" t="s">
+      <c r="C61" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35" t="s">
+      <c r="E61" s="34"/>
+      <c r="F61" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="34">
-        <v>0</v>
-      </c>
-      <c r="H61" s="36">
+      <c r="G61" s="33">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+      <c r="A62" s="35">
         <v>61</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="35" t="s">
+      <c r="B62" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="34">
-        <v>0</v>
-      </c>
-      <c r="H62" s="37"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="33">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+      <c r="A63" s="35">
         <v>62</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="34">
-        <v>0</v>
-      </c>
-      <c r="H63" s="36">
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="33">
+        <v>0</v>
+      </c>
+      <c r="H63" s="35">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+      <c r="A64" s="35">
         <v>63</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="34">
-        <v>0</v>
-      </c>
-      <c r="H64" s="36">
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="33">
+        <v>0</v>
+      </c>
+      <c r="H64" s="35">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+      <c r="A65" s="35">
         <v>64</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="34">
-        <v>0</v>
-      </c>
-      <c r="H65" s="37"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="33">
+        <v>0</v>
+      </c>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
+      <c r="A66" s="35">
         <v>65</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="34">
-        <v>0</v>
-      </c>
-      <c r="H66" s="37"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="33">
+        <v>0</v>
+      </c>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+      <c r="A67" s="35">
         <v>66</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="34">
-        <v>0</v>
-      </c>
-      <c r="H67" s="37"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="33">
+        <v>0</v>
+      </c>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+      <c r="A68" s="35">
         <v>67</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="34">
-        <v>0</v>
-      </c>
-      <c r="H68" s="36">
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="33">
+        <v>0</v>
+      </c>
+      <c r="H68" s="35">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
+      <c r="A69" s="35">
         <v>68</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="34">
-        <v>0</v>
-      </c>
-      <c r="H69" s="36">
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="33">
+        <v>0</v>
+      </c>
+      <c r="H69" s="35">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+      <c r="A70" s="35">
         <v>69</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="36">
-        <v>0</v>
-      </c>
-      <c r="H70" s="37"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="35">
+        <v>0</v>
+      </c>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="35">
         <v>70</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="34">
-        <v>0</v>
-      </c>
-      <c r="H71" s="37"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="33">
+        <v>0</v>
+      </c>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+      <c r="A72" s="35">
         <v>71</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="36">
-        <v>0</v>
-      </c>
-      <c r="H72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="35">
+        <v>0</v>
+      </c>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+      <c r="A73" s="35">
         <v>72</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36">
-        <v>0</v>
-      </c>
-      <c r="H73" s="37"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="35">
+        <v>0</v>
+      </c>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="A74" s="35">
         <v>73</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="36">
-        <v>0</v>
-      </c>
-      <c r="H74" s="37"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="35">
+        <v>0</v>
+      </c>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36">
+      <c r="A75" s="35">
         <v>74</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="36">
-        <v>0</v>
-      </c>
-      <c r="H75" s="37"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="35">
+        <v>0</v>
+      </c>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
@@ -6279,1320 +6408,1320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
+      <c r="A1" s="24">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="24">
         <v>1</v>
       </c>
-      <c r="G1" s="25">
-        <v>0</v>
-      </c>
-      <c r="H1" s="25">
+      <c r="G1" s="24">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24">
         <v>3</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
         <v>2</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
         <v>5</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>6</v>
+      </c>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>10</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>11</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>13</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <v>12</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>15</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>10</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>14</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>18</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>12</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>13</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>4</v>
+      </c>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>14</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <v>34</v>
+      </c>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>15</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>46</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>16</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>52</v>
+      </c>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>18</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <v>27</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
         <v>20</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>6</v>
-      </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>5</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="B20" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>7</v>
+      </c>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
+        <v>35</v>
+      </c>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>22</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="24">
+        <v>0</v>
+      </c>
+      <c r="H23" s="24">
+        <v>55</v>
+      </c>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="24">
+        <v>37</v>
+      </c>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>25</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
+        <v>38</v>
+      </c>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>26</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
+        <v>46</v>
+      </c>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>27</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="24">
+        <v>4</v>
+      </c>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>28</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <v>51</v>
+      </c>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>29</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0</v>
+      </c>
+      <c r="H29" s="24">
+        <v>46</v>
+      </c>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>31</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
+        <v>26</v>
+      </c>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>32</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="24">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>33</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+      <c r="H33" s="24">
+        <v>50</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>34</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>35</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="24">
+        <v>53</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>36</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24">
+        <v>27</v>
+      </c>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <v>37</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="24">
+        <v>0</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>38</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="24">
+        <v>0</v>
+      </c>
+      <c r="H38" s="24">
+        <v>52</v>
+      </c>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>39</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0</v>
+      </c>
+      <c r="H39" s="24">
+        <v>27</v>
+      </c>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>40</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0</v>
+      </c>
+      <c r="H40" s="24">
+        <v>54</v>
+      </c>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>41</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>42</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24">
+        <v>55</v>
+      </c>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <v>43</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
+      <c r="H43" s="24">
+        <v>35</v>
+      </c>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>44</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0</v>
+      </c>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>45</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="24">
+        <v>55</v>
+      </c>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>46</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>7</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="F46" s="26"/>
+      <c r="G46" s="24">
+        <v>0</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>47</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>48</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>49</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
+        <v>50</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>13</v>
-      </c>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>8</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>12</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>9</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>15</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>10</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>14</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>11</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>18</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>12</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>16</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>13</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>4</v>
-      </c>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>14</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25">
-        <v>1</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>34</v>
-      </c>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>15</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>46</v>
-      </c>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>16</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>17</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
+      <c r="F50" s="26"/>
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
+        <v>51</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
         <v>52</v>
       </c>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>18</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25">
-        <v>1</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>27</v>
-      </c>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="B52" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>20</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>7</v>
-      </c>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>21</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>35</v>
-      </c>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>22</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>23</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="D52" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
+        <v>53</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
+      <c r="D53" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="24">
+        <v>0</v>
+      </c>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
+        <v>54</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
         <v>55</v>
       </c>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>24</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B55" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="25">
-        <v>37</v>
-      </c>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="D55" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>56</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
-        <v>38</v>
-      </c>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>26</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>46</v>
-      </c>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>27</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>4</v>
-      </c>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>28</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25">
-        <v>1</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25">
-        <v>51</v>
-      </c>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>29</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="25">
-        <v>46</v>
-      </c>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>30</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0</v>
-      </c>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>31</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
-        <v>26</v>
-      </c>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>32</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
-      <c r="H32" s="25">
-        <v>0</v>
-      </c>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>33</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <v>50</v>
-      </c>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>34</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <v>0</v>
-      </c>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
-        <v>35</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>53</v>
-      </c>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>36</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="25">
-        <v>0</v>
-      </c>
-      <c r="H36" s="25">
-        <v>27</v>
-      </c>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>37</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="25">
-        <v>0</v>
-      </c>
-      <c r="H37" s="25">
-        <v>0</v>
-      </c>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>38</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="25">
-        <v>0</v>
-      </c>
-      <c r="H38" s="25">
-        <v>52</v>
-      </c>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>39</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="H39" s="25">
-        <v>27</v>
-      </c>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>40</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25">
-        <v>1</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="25">
-        <v>54</v>
-      </c>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>41</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0</v>
-      </c>
-      <c r="H41" s="25">
-        <v>0</v>
-      </c>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>42</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="25">
-        <v>0</v>
-      </c>
-      <c r="H42" s="25">
-        <v>55</v>
-      </c>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>43</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="25">
-        <v>0</v>
-      </c>
-      <c r="H43" s="25">
-        <v>35</v>
-      </c>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>44</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="25">
-        <v>0</v>
-      </c>
-      <c r="H44" s="25">
-        <v>0</v>
-      </c>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>45</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="25">
-        <v>0</v>
-      </c>
-      <c r="H45" s="25">
-        <v>55</v>
-      </c>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>46</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="25">
-        <v>0</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>47</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25">
-        <v>0</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>48</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="25">
-        <v>0</v>
-      </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>49</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="25">
-        <v>0</v>
-      </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
-        <v>50</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="25">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>51</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="25">
-        <v>0</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>52</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="25">
-        <v>0</v>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>53</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="25">
-        <v>0</v>
-      </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>54</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="25">
-        <v>0</v>
-      </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>55</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="25">
-        <v>0</v>
-      </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
-        <v>56</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="25">
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24">
         <v>0</v>
       </c>
     </row>
@@ -7601,7 +7730,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
@@ -7617,18 +7746,18 @@
       <c r="A58" s="6">
         <v>58</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="25">
+      <c r="E58" s="24"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="24">
         <v>0</v>
       </c>
     </row>
@@ -7637,9 +7766,9 @@
         <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -7651,9 +7780,9 @@
         <v>60</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -7665,9 +7794,9 @@
         <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -7679,9 +7808,9 @@
         <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -7689,7 +7818,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="10"/>
       <c r="C63" s="22"/>
     </row>
@@ -7816,10 +7945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7828,7 +7957,7 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7854,29 +7983,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="33">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35">
         <v>2</v>
       </c>
     </row>
@@ -7952,32 +8081,34 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -7991,21 +8122,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -8013,103 +8144,109 @@
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -8117,47 +8254,43 @@
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -8171,15 +8304,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -8188,48 +8321,52 @@
         <v>10</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -8237,45 +8374,43 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5"/>
+      <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
@@ -8285,311 +8420,313 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="5">
-        <v>1</v>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5">
         <v>0</v>
       </c>
-      <c r="H26" s="6">
-        <v>24</v>
-      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="5">
         <v>0</v>
       </c>
-      <c r="H27" s="6">
-        <v>27</v>
+      <c r="H27" s="13">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="6">
-        <v>26</v>
+      <c r="H28" s="13">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
+      <c r="A29" s="14">
+        <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H29" s="15"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
-        <v>30</v>
-      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
-        <v>31</v>
+      <c r="A32" s="2">
+        <v>34</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H32" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>227</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5">
         <v>0</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="13">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
@@ -8598,182 +8735,176 @@
         <v>13</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="5">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
-        <v>33</v>
-      </c>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="5">
+      <c r="G36" s="13">
         <v>0</v>
       </c>
       <c r="H36" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>51</v>
+      <c r="A37" s="13">
+        <v>39</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
+      <c r="D37" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5">
+      <c r="G37" s="13">
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>52</v>
+      <c r="A38" s="13">
+        <v>40</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5">
         <v>0</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="H38" s="13">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>53</v>
+      <c r="A39" s="13">
+        <v>41</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="13">
+      <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>10</v>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="13">
+      <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="13">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5">
+        <v>228</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="13">
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -8781,21 +8912,21 @@
         <v>0</v>
       </c>
       <c r="H42" s="13">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -8803,79 +8934,87 @@
         <v>0</v>
       </c>
       <c r="H43" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="13">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
         <v>0</v>
       </c>
       <c r="H44" s="13">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
       <c r="G45" s="5">
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -8884,46 +9023,46 @@
         <v>13</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="5">
-        <v>1</v>
+      <c r="F47" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>233</v>
+        <v>52</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>10</v>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="5">
-        <v>1</v>
+      <c r="F48" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <v>48</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -8932,46 +9071,43 @@
         <v>10</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="5">
-        <v>1</v>
+      <c r="F49" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G49" s="5">
         <v>0</v>
       </c>
       <c r="H49" s="13">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <v>49</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="5">
         <v>0</v>
-      </c>
-      <c r="H50" s="13">
-        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -8980,261 +9116,239 @@
         <v>10</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="13">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F53" s="4"/>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <v>53</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
+      <c r="D54" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G55" s="5">
         <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <v>55</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>10</v>
+      <c r="D56" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G56" s="5">
         <v>0</v>
       </c>
       <c r="H56" s="13">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <v>56</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
-        <v>55</v>
-      </c>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="5">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
-        <v>58</v>
-      </c>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <v>58</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="5">
         <v>0</v>
       </c>
-      <c r="H59" s="13">
-        <v>57</v>
-      </c>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="5">
         <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <v>60</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="13">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="5">
         <v>0</v>
@@ -9242,262 +9356,462 @@
     </row>
     <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <v>62</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="13">
-        <v>63</v>
+      <c r="D63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <v>63</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
-        <v>62</v>
+      <c r="D64" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
-        <v>64</v>
-      </c>
-      <c r="B65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="44">
+        <v>75</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="28">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
+        <v>76</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="28">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
+        <v>77</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <v>78</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="28">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <v>79</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="28">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
         <v>80</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B71" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="28">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>81</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
-      <c r="B66" s="12" t="s">
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28">
+        <v>81</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="28">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28">
         <v>82</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="B73" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
-      <c r="B67" s="12" t="s">
+      <c r="D73" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="28">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>83</v>
       </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <v>83</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D74" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" s="28">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
         <v>84</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
-      <c r="B68" s="12" t="s">
+      <c r="B75" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G75" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28">
         <v>85</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="B76" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G76" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="28">
         <v>86</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="13">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="B77" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="28">
         <v>87</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="B78" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="28">
         <v>88</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
+      <c r="B79" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="28">
         <v>89</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
-      <c r="B71" s="12" t="s">
+      <c r="B80" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28">
         <v>90</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
+      <c r="B81" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="28">
         <v>91</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="B82" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28">
         <v>92</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
+      <c r="B83" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="28">
         <v>93</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="B84" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="28">
+        <v>94</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="28">
         <v>95</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
-      <c r="B75" s="23" t="s">
+      <c r="B86" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="28">
         <v>96</v>
       </c>
-      <c r="C75" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
+      <c r="B87" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="28">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9506,10 +9820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9635,7 +9949,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9839,7 +10153,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9856,7 +10170,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9873,24 +10187,24 @@
         <v>22</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="42">
         <v>46</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="42">
         <v>47</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>229</v>
+      <c r="E22" s="43" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9907,7 +10221,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9924,7 +10238,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9941,7 +10255,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9958,7 +10272,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9975,7 +10289,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -9992,7 +10306,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10009,24 +10323,75 @@
         <v>22</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="42">
         <v>67</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="42">
         <v>68</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>125</v>
+      <c r="E30" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <v>75</v>
+      </c>
+      <c r="B31" s="28">
+        <v>76</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <v>78</v>
+      </c>
+      <c r="B32" s="28">
+        <v>79</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
+        <v>82</v>
+      </c>
+      <c r="B33" s="28">
+        <v>83</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -10047,769 +10412,769 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>132</v>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>137</v>
+      <c r="D2" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>137</v>
+      <c r="D3" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>137</v>
+      <c r="D4" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>137</v>
+      <c r="D5" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>137</v>
+      <c r="D6" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>137</v>
+      <c r="D7" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>137</v>
+      <c r="D8" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>141</v>
+      <c r="B9" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>141</v>
+      <c r="B10" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>145</v>
+      <c r="B11" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>145</v>
+      <c r="B12" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>149</v>
+      <c r="B13" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>149</v>
+      <c r="B14" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>149</v>
+      <c r="B15" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>149</v>
+      <c r="B16" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>149</v>
+      <c r="B17" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>154</v>
+      <c r="B18" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="31" t="s">
         <v>147</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>154</v>
+      <c r="B19" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>154</v>
+      <c r="B20" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>154</v>
+      <c r="B21" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>154</v>
+      <c r="B22" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>154</v>
+      <c r="B23" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>154</v>
+      <c r="B24" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>154</v>
+      <c r="B25" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>154</v>
+      <c r="B26" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>154</v>
+      <c r="B27" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>154</v>
+      <c r="B28" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>163</v>
+      <c r="B29" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>163</v>
+      <c r="B30" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>163</v>
+      <c r="B31" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>163</v>
+      <c r="B32" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>163</v>
+      <c r="B33" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>168</v>
+      <c r="B34" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>168</v>
+      <c r="B35" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>168</v>
+      <c r="B36" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>168</v>
+      <c r="B37" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>168</v>
+      <c r="B38" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>168</v>
+      <c r="B39" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>173</v>
+      <c r="B40" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>173</v>
+      <c r="B41" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>173</v>
+      <c r="B42" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>173</v>
+      <c r="B43" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>173</v>
+      <c r="B44" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>173</v>
+      <c r="B45" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>173</v>
+      <c r="B46" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>173</v>
+      <c r="B47" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>182</v>
+      <c r="B49" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>137</v>
+        <v>180</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>182</v>
+      <c r="B50" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>137</v>
+        <v>180</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>182</v>
+      <c r="B51" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>137</v>
+        <v>180</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>185</v>
+      <c r="B52" s="30" t="s">
+        <v>182</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>147</v>
+        <v>183</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>192</v>
+      <c r="B54" s="30" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>185</v>
+      <c r="B55" s="30" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>168</v>
+      <c r="B56" s="30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -11149,4 +11514,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>